--- a/산출물_프로젝트_근태 관리/분석/AND-01.요구사항정의서/20200731_근태관리_AND-01_요구사항정의서_v2.0.xlsx
+++ b/산출물_프로젝트_근태 관리/분석/AND-01.요구사항정의서/20200731_근태관리_AND-01_요구사항정의서_v2.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\ims_문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\infogen_ims\산출물_프로젝트_근태 관리\분석\AND-01.요구사항정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9690" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="겉표지" sheetId="3" r:id="rId1"/>
@@ -1559,6 +1559,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1576,12 +1582,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1927,7 +1927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2254,11 +2254,11 @@
   </sheetPr>
   <dimension ref="A1:X82"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2990,7 +2990,7 @@
         <v>176</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G15" s="35" t="s">
         <v>169</v>
@@ -3044,7 +3044,7 @@
         <v>176</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>174</v>
@@ -3098,7 +3098,7 @@
         <v>151</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>201</v>
@@ -3152,7 +3152,7 @@
         <v>151</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>173</v>
@@ -4899,102 +4899,102 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="51">
+      <c r="A2" s="53">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="51" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="53" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="52"/>
-      <c r="B3" s="57"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="52"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="54"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="52"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="52"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="52"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="54"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="52"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="57"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="52"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="52"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="57"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="52"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="57"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="52"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="57"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="53"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
@@ -5074,7 +5074,7 @@
       <c r="C16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="53" t="s">
         <v>98</v>
       </c>
       <c r="E16" s="13" t="s">
@@ -5091,7 +5091,7 @@
       <c r="C17" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="52"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="13" t="s">
         <v>104</v>
       </c>
@@ -5106,7 +5106,7 @@
       <c r="C18" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="52"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="13" t="s">
         <v>104</v>
       </c>
@@ -5121,7 +5121,7 @@
       <c r="C19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="52"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="13" t="s">
         <v>104</v>
       </c>
@@ -5136,16 +5136,16 @@
       <c r="C20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="53"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="51">
+      <c r="A21" s="53">
         <v>11</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="51" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -5159,105 +5159,105 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="57"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="53" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="57"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="52"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="54"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="57"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="52"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="54"/>
     </row>
     <row r="25" spans="1:5" ht="24" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="57"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="53"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="55"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="51">
+      <c r="A26" s="53">
         <v>12</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="51" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="53" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="57"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="53"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="55"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="51">
+      <c r="A28" s="53">
         <v>13</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="53" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="52"/>
-      <c r="B29" s="58"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="52"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
-      <c r="B30" s="58"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="53"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="55"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
@@ -5303,43 +5303,43 @@
       <c r="C33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="53" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="51">
+      <c r="A34" s="53">
         <v>17</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="52"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="54"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
-      <c r="B35" s="58"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D35" s="55"/>
-      <c r="E35" s="52"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="54"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="53"/>
-      <c r="B36" s="58"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="53"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="55"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
@@ -5427,109 +5427,95 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="51">
+      <c r="A42" s="53">
         <v>23</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="51" t="s">
         <v>90</v>
       </c>
       <c r="C42" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="54" t="s">
+      <c r="D42" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="53" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="52"/>
-      <c r="B43" s="57"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="52"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="54"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="52"/>
-      <c r="B44" s="57"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D44" s="55"/>
-      <c r="E44" s="52"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="54"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="52"/>
-      <c r="B45" s="57"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="52"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="54"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="53"/>
-      <c r="B46" s="57"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="53"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="55"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="51">
+      <c r="A47" s="53">
         <v>24</v>
       </c>
-      <c r="B47" s="57" t="s">
+      <c r="B47" s="51" t="s">
         <v>91</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D47" s="54" t="s">
+      <c r="D47" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="51" t="s">
+      <c r="E47" s="53" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="52"/>
-      <c r="B48" s="57"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="55"/>
-      <c r="E48" s="52"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="54"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="53"/>
-      <c r="B49" s="57"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D49" s="56"/>
-      <c r="E49" s="53"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A42:A46"/>
     <mergeCell ref="E47:E49"/>
     <mergeCell ref="D47:D49"/>
     <mergeCell ref="D42:D46"/>
@@ -5545,6 +5531,20 @@
     <mergeCell ref="E28:E30"/>
     <mergeCell ref="E33:E36"/>
     <mergeCell ref="E42:E46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B42:B46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
